--- a/AI Assistant/4. test results/response time/game specific results.xlsx
+++ b/AI Assistant/4. test results/response time/game specific results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\finalyearproject\eOverlay\test results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\finalyearproject\AI Assistant\4. test results\response time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23110777-D2BD-4942-85AE-138C6E588B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1569C4-9618-492F-BE93-C40F3B0D2012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32475" yWindow="1500" windowWidth="21600" windowHeight="11505" xr2:uid="{96DE4B8F-E949-4DE4-9FC3-943954BEB683}"/>
+    <workbookView xWindow="30360" yWindow="240" windowWidth="21600" windowHeight="11505" xr2:uid="{96DE4B8F-E949-4DE4-9FC3-943954BEB683}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A5C938-132A-4B46-B08E-CCB8AED96729}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7.003927</v>
+        <v>2.0509019999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>8.4713419999999999</v>
+        <v>3.8193239999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>6.0596930000000002</v>
+        <v>3.3134589999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>8.4454279999999997</v>
+        <v>5.0016259999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>10.395291</v>
+        <v>4.8139139999999996</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
       </c>
       <c r="C7">
         <f>AVERAGE(C2:C6)</f>
-        <v>8.0751361999999993</v>
+        <v>3.7998449999999999</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>7.3011499999999998</v>
+        <v>4.6403889999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>10.404391</v>
+        <v>2.213924</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>9.0246490000000001</v>
+        <v>3.879664</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>8.0953269999999993</v>
+        <v>4.8350559999999998</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>9.8074510000000004</v>
+        <v>2.8074509999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
       </c>
       <c r="C14">
         <f>AVERAGE(C9:C13)</f>
-        <v>8.9265936000000004</v>
+        <v>3.6752967999999995</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>7.1702630000000003</v>
+        <v>4.5277469999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>9.3933870000000006</v>
+        <v>3.5019119999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>5.6898669999999996</v>
+        <v>4.0877790000000003</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>8.7344550000000005</v>
+        <v>3.5757819999999998</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>9.4703189999999999</v>
+        <v>4.0648669999999996</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
       </c>
       <c r="C21">
         <f>AVERAGE(C16:C20)</f>
-        <v>8.0916582000000012</v>
+        <v>3.9516173999999999</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>6.5702059999999998</v>
+        <v>4.344271</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>5.3991629999999997</v>
+        <v>3.4176199999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>6.8821269999999997</v>
+        <v>4.2170629999999996</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>7.9633700000000003</v>
+        <v>3.2820939999999998</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>9.7237019999999994</v>
+        <v>4.3935469999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
       </c>
       <c r="C28">
         <f>AVERAGE(C23:C27)</f>
-        <v>7.3077135999999996</v>
+        <v>3.9309190000000003</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>5.8458220000000001</v>
+        <v>3.649975</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>5.6806369999999999</v>
+        <v>3.3193410000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>6.3288019999999996</v>
+        <v>2.3573550000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>7.9758490000000002</v>
+        <v>3.3494470000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>7.0423819999999999</v>
+        <v>3.3353359999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
       </c>
       <c r="C35">
         <f>AVERAGE(C30:C34)</f>
-        <v>6.5746983999999999</v>
+        <v>3.2022908000000001</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
